--- a/xlsx/贝弗里奇_intext.xlsx
+++ b/xlsx/贝弗里奇_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>政策_政策_社会政策_贝弗里奇</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%A2%E9%95%B7</t>
   </si>
   <si>
-    <t>院長</t>
+    <t>院长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%89%B9%E8%B1%AA%E6%96%AF%E5%85%AC%E5%AD%B8</t>
   </si>
   <si>
-    <t>查特豪斯公學</t>
+    <t>查特豪斯公学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6%E8%B4%9D%E5%88%A9%E5%A5%A5%E5%B0%94%E5%AD%A6%E9%99%A2</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%A1%A3%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>藍衣行動</t>
+    <t>蓝衣行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%A8%81%E5%BE%B7%E6%B2%B3%E7%95%94%E8%B4%9D%E9%87%8C%E5%85%8B</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>工黨</t>
+    <t>工党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E9%97%A8%E7%89%B9%C2%B7%E8%89%BE%E5%BE%B7%E7%A4%BC</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E7%94%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>優生學</t>
+    <t>优生学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BB%A3%E7%BE%85%E7%B4%A0%E4%BC%AF%E7%88%B5%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>第一代羅素伯爵約翰·羅素</t>
+    <t>第一代罗素伯爵约翰·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%A0%BC%E8%90%8A%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>威廉·格萊斯頓</t>
+    <t>威廉·格莱斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%9B%96%E4%BC%8A</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%88%88%E7%94%B3%EF%BC%8C%E7%AC%AC%E4%B8%80%E4%BB%A3%E6%88%88%E7%94%B3%E5%AD%90%E7%88%B5</t>
   </si>
   <si>
-    <t>喬治·戈申，第一代戈申子爵</t>
+    <t>乔治·戈申，第一代戈申子爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%B1%80%C2%B7%E5%B8%83%E6%8B%89%E5%BE%B7%E7%A6%8F%E5%BE%B7%C2%B7%E5%B8%8C%E5%B0%94</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
